--- a/projecte_assignacio/empreses/static/file/empreses_ex.xlsx
+++ b/projecte_assignacio/empreses/static/file/empreses_ex.xlsx
@@ -484,14 +484,24 @@
           <t>Silla</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>aeol@gmail.com</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Joaquin Aoelix</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[DefaultMunch(None, {'Descripcio': '', 'Nom': 'Pràctica2', 'Tecnologies i Frameworks': [], 'Titulacio': 'DAW'}), DefaultMunch(None, {'Descripcio': '', 'Nom': 'Pràctica2', 'Tecnologies i Frameworks': [], 'Titulacio': 'DAW'})]</t>
+          <t>[DefaultMunch(None, {'Descripcio': '', 'Nom': 'Pràctica1', 'Tecnologies i Frameworks': 'Angular, HTML; CSS', 'Titulacio': 'DAW'}), DefaultMunch(None, {'Descripcio': '', 'Nom': 'Pràctica2', 'Tecnologies i Frameworks': [], 'Titulacio': 'DAW'})]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">

--- a/projecte_assignacio/empreses/static/file/empreses_ex.xlsx
+++ b/projecte_assignacio/empreses/static/file/empreses_ex.xlsx
@@ -484,24 +484,14 @@
           <t>Silla</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>aeol@gmail.com</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Joaquin Aoelix</t>
-        </is>
-      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[DefaultMunch(None, {'Descripcio': '', 'Nom': 'Pràctica1', 'Tecnologies i Frameworks': 'Angular, HTML; CSS', 'Titulacio': 'DAW'}), DefaultMunch(None, {'Descripcio': '', 'Nom': 'Pràctica2', 'Tecnologies i Frameworks': [], 'Titulacio': 'DAW'})]</t>
+          <t>[DefaultMunch(None, {'Descripcio': '', 'Nom': 'Pràctica2', 'Tecnologies i Frameworks': [], 'Titulacio': 'DAW'}), DefaultMunch(None, {'Descripcio': '', 'Nom': 'Pràctica2', 'Tecnologies i Frameworks': [], 'Titulacio': 'DAW'})]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
